--- a/lfd_package/results/great falls_mt/great falls_mt_results.xlsx
+++ b/lfd_package/results/great falls_mt/great falls_mt_results.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="great falls_mt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="STD2019_GreatFalls_MT.csv" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,11 +1050,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>39116.43</v>
       </c>
@@ -1563,6 +1562,1684 @@
       <c r="I26" t="inlineStr">
         <is>
           <t>%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variable Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ELF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TLF</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PP PES</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PP Peak</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Annual Electrical Demand</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>331.54</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>megawatt_hour</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Peak Electrical Demand</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Annual Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50.217</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>megawatt_hour</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peak Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHP Size</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>31.13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7.592</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TES Size</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>79.65900000000001</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>18.91</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aux Boiler Size</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>74.45999999999999</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHP Electrical Energy Generation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>245811.96</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>18037.02</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>267483.57</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>331539.68</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electrical Energy Bought</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>85727.73</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>313502.66</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>64056.11</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electrical Energy Sold</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>39116.43</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>319590.43</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHP Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>460184.56</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>34766.81</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>573985.86</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1218980.68</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TES Thermal Energy Dispatched</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1411.96</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4468.92</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>417.3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>16026.1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CHP Electrical Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>74.14</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electricity Bought Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>25.86</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>94.56</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CHP Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>916.4</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>69.23</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1143.02</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>2427.44</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TES Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>31.91</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Thermal Energy Savings</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-831916.39</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-22873.29</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>-1052527.11</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-2305780.09</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electrical Energy Savings</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>245811.96</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>18037.02</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>267483.57</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>331539.68</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total Energy Savings</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-586104.4399999999</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-4836.27</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>-785043.54</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>-1974240.41</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Electricity Cost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>843.54</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>254.34</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>800.3200000000001</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>202.38</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fuel Cost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3364.29</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>15905.72</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>3709.11</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>19231.51</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>38124.74</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHP Installed Cost</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>107492.83</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>26218.65</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>120866.9</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>256686.49</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHP O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>7374.36</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>541.11</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>19533.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TES Installed Cost</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1528.03</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1669.65</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>396.44</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TES O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PP Revenue</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>4562.62</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>26075.33</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Simple Payback [Yrs]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-5.64</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>-33.09</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>-6.11</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-9.380000000000001</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Simple Payback (37.5% incentive)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>-20.68</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-5.86</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>102</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>70</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>98</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>74</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>117</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
         </is>
       </c>
     </row>
